--- a/profession.xlsx
+++ b/profession.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_count</t>
+          <t>FALSE_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_percent</t>
+          <t>FALSE_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_count</t>
+          <t>TRUE_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_percent</t>
+          <t>TRUE_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -397,204 +397,204 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Business Owner</t>
+          <t>Hair Dresser</t>
         </is>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1.36986301369863</v>
+        <v>11.11111111111111</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6.756756756756757</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fishmonger</t>
+          <t>Midwife</t>
         </is>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4.10958904109589</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>15.38461538461539</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hair Dresser</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>5.47945205479452</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>15.78947368421053</v>
+        <v>31.08108108108108</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>5.128205128205128</v>
+        <v>17.94871794871795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Seamstress</t>
         </is>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>31.50684931506849</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>31.57894736842105</v>
+        <v>5.405405405405405</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>17.94871794871795</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Seamstress</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.47945205479452</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>6.756756756756757</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
       <c r="G6">
-        <v>7.692307692307693</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Trader</t>
         </is>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>6.849315068493151</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>5.263157894736842</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>2.564102564102564</v>
+        <v>28.2051282051282</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>4.10958904109589</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>5.128205128205128</v>
+          <t>Business Owner</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1.351351351351351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Trader</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>35.61643835616438</v>
+          <t>Fishmonger</t>
+        </is>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>36.84210526315789</v>
+        <v>4.054054054054054</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>28.2051282051282</v>
+        <v>15.38461538461539</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>4.054054054054054</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>5.128205128205128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>5.47945205479452</v>
-      </c>
-      <c r="F10">
+      <c r="E11">
+        <v>5.405405405405405</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>15.38461538461539</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Midwife</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="12">

--- a/profession.xlsx
+++ b/profession.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -397,204 +397,204 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hair Dresser</t>
+          <t>Business Owner</t>
         </is>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>6.756756756756757</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>5.128205128205128</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Midwife</t>
+          <t>Fishmonger</t>
         </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5.555555555555555</v>
+        <v>4.10958904109589</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>15.38461538461539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Hair Dresser</t>
         </is>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>33.33333333333333</v>
+        <v>5.47945205479452</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>31.08108108108108</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>17.94871794871795</v>
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Seamstress</t>
+          <t>None</t>
         </is>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>5.555555555555555</v>
+        <v>31.50684931506849</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>5.405405405405405</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>7.692307692307693</v>
+        <v>17.94871794871795</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Student</t>
+          <t>Seamstress</t>
         </is>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5.47945205479452</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>6.756756756756757</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>2.564102564102564</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trader</t>
+          <t>Student</t>
         </is>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>38.88888888888889</v>
+        <v>6.849315068493151</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>35.13513513513514</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>28.2051282051282</v>
+        <v>2.564102564102564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Business Owner</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1.351351351351351</v>
+          <t>Teacher</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4.10958904109589</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>5.128205128205128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fishmonger</t>
-        </is>
+          <t>Trader</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>35.61643835616438</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>4.054054054054054</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>28.2051282051282</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>5.47945205479452</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>15.38461538461539</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Teacher</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>4.054054054054054</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>5.128205128205128</v>
-      </c>
-    </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Midwife</t>
+        </is>
+      </c>
       <c r="D11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>5.405405405405405</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>15.38461538461539</v>
+        <v>5.263157894736842</v>
       </c>
     </row>
     <row r="12">
